--- a/outcome/simulate data/B_Gonorrhea.xlsx
+++ b/outcome/simulate data/B_Gonorrhea.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>12986.1438734018</v>
+        <v>10210.3514179189</v>
       </c>
       <c r="C2" t="n">
-        <v>9133.33884023398</v>
+        <v>7994.69779361705</v>
       </c>
       <c r="D2" t="n">
-        <v>7580.8050564533</v>
+        <v>7023.64760652028</v>
       </c>
       <c r="E2" t="n">
-        <v>18464.2150751927</v>
+        <v>13040.0521406365</v>
       </c>
       <c r="F2" t="n">
-        <v>22245.6495642417</v>
+        <v>14842.8967279934</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>13786.664440215</v>
+        <v>11126.7904302899</v>
       </c>
       <c r="C3" t="n">
-        <v>9654.96685108028</v>
+        <v>8671.35021425671</v>
       </c>
       <c r="D3" t="n">
-        <v>7995.63752423188</v>
+        <v>7599.15097391598</v>
       </c>
       <c r="E3" t="n">
-        <v>19686.4597588774</v>
+        <v>14277.5302831202</v>
       </c>
       <c r="F3" t="n">
-        <v>23771.977632934</v>
+        <v>16292.0128451918</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>14052.529939745</v>
+        <v>11330.2660310308</v>
       </c>
       <c r="C4" t="n">
-        <v>9799.51926502756</v>
+        <v>8789.16795403837</v>
       </c>
       <c r="D4" t="n">
-        <v>8097.15290101569</v>
+        <v>7683.56064992183</v>
       </c>
       <c r="E4" t="n">
-        <v>20151.3556294718</v>
+        <v>14606.0388201986</v>
       </c>
       <c r="F4" t="n">
-        <v>24388.0287455928</v>
+        <v>16707.7393129234</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>13048.0970825955</v>
+        <v>10514.9665284215</v>
       </c>
       <c r="C5" t="n">
-        <v>9060.91936251123</v>
+        <v>8119.70472987031</v>
       </c>
       <c r="D5" t="n">
-        <v>7470.22444139213</v>
+        <v>7081.24023589613</v>
       </c>
       <c r="E5" t="n">
-        <v>18789.797223143</v>
+        <v>13616.8154843224</v>
       </c>
       <c r="F5" t="n">
-        <v>22790.8597409034</v>
+        <v>15613.7226545925</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>13404.9250202188</v>
+        <v>10672.3849224714</v>
       </c>
       <c r="C6" t="n">
-        <v>9270.00980204959</v>
+        <v>8204.47705118397</v>
       </c>
       <c r="D6" t="n">
-        <v>7625.77175357592</v>
+        <v>7138.24545867815</v>
       </c>
       <c r="E6" t="n">
-        <v>19384.2313692006</v>
+        <v>13882.639834669</v>
       </c>
       <c r="F6" t="n">
-        <v>23563.7809003954</v>
+        <v>15956.2739321219</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>13315.2664965463</v>
+        <v>10735.9979427039</v>
       </c>
       <c r="C7" t="n">
-        <v>9170.05609464981</v>
+        <v>8217.12609052554</v>
       </c>
       <c r="D7" t="n">
-        <v>7527.07229166992</v>
+        <v>7132.60920391155</v>
       </c>
       <c r="E7" t="n">
-        <v>19334.2679743792</v>
+        <v>14027.0029394633</v>
       </c>
       <c r="F7" t="n">
-        <v>23554.4863931039</v>
+        <v>16159.8159285851</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>13010.1519289228</v>
+        <v>10570.540955573</v>
       </c>
       <c r="C8" t="n">
-        <v>8923.31360398458</v>
+        <v>8055.50151714571</v>
       </c>
       <c r="D8" t="n">
-        <v>7308.67842991553</v>
+        <v>6976.29290268414</v>
       </c>
       <c r="E8" t="n">
-        <v>18968.7442048513</v>
+        <v>13870.8106324134</v>
       </c>
       <c r="F8" t="n">
-        <v>23159.3241974951</v>
+        <v>16016.5775222047</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>11829.9713776939</v>
+        <v>9706.16829957528</v>
       </c>
       <c r="C9" t="n">
-        <v>8080.98321991614</v>
+        <v>7365.28465941768</v>
       </c>
       <c r="D9" t="n">
-        <v>6604.55377039737</v>
+        <v>6364.14982360114</v>
       </c>
       <c r="E9" t="n">
-        <v>17318.2172253673</v>
+        <v>12791.0471103405</v>
       </c>
       <c r="F9" t="n">
-        <v>21189.6560558453</v>
+        <v>14803.1874910154</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>9592.28481918367</v>
+        <v>7420.15245048342</v>
       </c>
       <c r="C10" t="n">
-        <v>6526.10562460025</v>
+        <v>5606.97025199463</v>
       </c>
       <c r="D10" t="n">
-        <v>5322.40337049929</v>
+        <v>4834.06324826372</v>
       </c>
       <c r="E10" t="n">
-        <v>14099.0559064048</v>
+        <v>9819.68155954252</v>
       </c>
       <c r="F10" t="n">
-        <v>17287.6652984139</v>
+        <v>11389.7273495937</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>11580.2039821044</v>
+        <v>9218.51906680128</v>
       </c>
       <c r="C11" t="n">
-        <v>7847.19241642287</v>
+        <v>6937.07763480968</v>
       </c>
       <c r="D11" t="n">
-        <v>6386.31147207016</v>
+        <v>5967.71060337487</v>
       </c>
       <c r="E11" t="n">
-        <v>17089.0577356681</v>
+        <v>12250.272846674</v>
       </c>
       <c r="F11" t="n">
-        <v>20998.2123254752</v>
+        <v>14240.1499390604</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>11582.6812300461</v>
+        <v>9326.98357605673</v>
       </c>
       <c r="C12" t="n">
-        <v>7817.85365541465</v>
+        <v>6990.07478161934</v>
       </c>
       <c r="D12" t="n">
-        <v>6349.11213835599</v>
+        <v>6000.30748413358</v>
       </c>
       <c r="E12" t="n">
-        <v>17160.5290134772</v>
+        <v>12445.1633703236</v>
       </c>
       <c r="F12" t="n">
-        <v>21130.2779905853</v>
+        <v>14498.027452437</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>12901.2722046362</v>
+        <v>10280.3256652353</v>
       </c>
       <c r="C13" t="n">
-        <v>8673.71880359679</v>
+        <v>7673.56129621716</v>
       </c>
       <c r="D13" t="n">
-        <v>7029.55595819425</v>
+        <v>6572.97504874497</v>
       </c>
       <c r="E13" t="n">
-        <v>19189.3267774714</v>
+        <v>13772.6267770083</v>
       </c>
       <c r="F13" t="n">
-        <v>23677.5730199711</v>
+        <v>16078.7307116697</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>13009.9283950021</v>
+        <v>10211.1899006278</v>
       </c>
       <c r="C14" t="n">
-        <v>8712.7620450484</v>
+        <v>7591.70432513219</v>
       </c>
       <c r="D14" t="n">
-        <v>7046.65151078947</v>
+        <v>6489.18264726586</v>
       </c>
       <c r="E14" t="n">
-        <v>19426.4730251957</v>
+        <v>13734.5179318304</v>
       </c>
       <c r="F14" t="n">
-        <v>24019.6689993711</v>
+        <v>16068.0327329998</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>13810.5549150924</v>
+        <v>11127.5664224804</v>
       </c>
       <c r="C15" t="n">
-        <v>9213.26914129777</v>
+        <v>8240.59280112559</v>
       </c>
       <c r="D15" t="n">
-        <v>7436.22036769759</v>
+        <v>7029.21404386067</v>
       </c>
       <c r="E15" t="n">
-        <v>20701.8186636755</v>
+        <v>15025.9498891632</v>
       </c>
       <c r="F15" t="n">
-        <v>25648.9745639206</v>
+        <v>17615.4451570385</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>14075.569416675</v>
+        <v>11330.9370919935</v>
       </c>
       <c r="C16" t="n">
-        <v>9354.13384214674</v>
+        <v>8358.7451578993</v>
       </c>
       <c r="D16" t="n">
-        <v>7534.60801618567</v>
+        <v>7115.38608591605</v>
       </c>
       <c r="E16" t="n">
-        <v>21180.1175551887</v>
+        <v>15359.9772402897</v>
       </c>
       <c r="F16" t="n">
-        <v>26294.8854111637</v>
+        <v>18044.0152976162</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>13068.337472917</v>
+        <v>10515.4954174201</v>
       </c>
       <c r="C17" t="n">
-        <v>8651.79032443608</v>
+        <v>7727.56892899718</v>
       </c>
       <c r="D17" t="n">
-        <v>6954.86290603566</v>
+        <v>6564.7834813802</v>
       </c>
       <c r="E17" t="n">
-        <v>19739.4340248507</v>
+        <v>14309.2407055544</v>
       </c>
       <c r="F17" t="n">
-        <v>24555.6881010319</v>
+        <v>16843.7609842596</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>13424.5989325733</v>
+        <v>10672.8408052452</v>
       </c>
       <c r="C18" t="n">
-        <v>8854.16950944729</v>
+        <v>7813.60111707704</v>
       </c>
       <c r="D18" t="n">
-        <v>7103.34184913267</v>
+        <v>6624.59852253465</v>
       </c>
       <c r="E18" t="n">
-        <v>20354.236081448</v>
+        <v>14578.3652310011</v>
       </c>
       <c r="F18" t="n">
-        <v>25371.1366182459</v>
+        <v>17194.9334690436</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>13333.7562798315</v>
+        <v>10736.3874085979</v>
       </c>
       <c r="C19" t="n">
-        <v>8761.37956995905</v>
+        <v>7830.81392608241</v>
       </c>
       <c r="D19" t="n">
-        <v>7014.97853813638</v>
+        <v>6626.07496200208</v>
       </c>
       <c r="E19" t="n">
-        <v>20292.3586531449</v>
+        <v>14720.055370434</v>
       </c>
       <c r="F19" t="n">
-        <v>25344.2053405308</v>
+        <v>17396.4247685888</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>13027.245030119</v>
+        <v>10570.8666120702</v>
       </c>
       <c r="C20" t="n">
-        <v>8528.2204257318</v>
+        <v>7681.67024248823</v>
       </c>
       <c r="D20" t="n">
-        <v>6814.873354399</v>
+        <v>6487.18334163284</v>
       </c>
       <c r="E20" t="n">
-        <v>19899.7099749796</v>
+        <v>14546.7349421114</v>
       </c>
       <c r="F20" t="n">
-        <v>24902.7537636063</v>
+        <v>17225.2293554038</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>11844.6768710899</v>
+        <v>9706.42224830928</v>
       </c>
       <c r="C21" t="n">
-        <v>7725.50837900325</v>
+        <v>7027.78993703958</v>
       </c>
       <c r="D21" t="n">
-        <v>6161.38576798079</v>
+        <v>5923.52170472066</v>
       </c>
       <c r="E21" t="n">
-        <v>18160.1473065303</v>
+        <v>13406.0115209079</v>
       </c>
       <c r="F21" t="n">
-        <v>22770.2623181978</v>
+        <v>15905.1722199972</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>9603.56656237048</v>
+        <v>7420.31732248694</v>
       </c>
       <c r="C22" t="n">
-        <v>6240.88768804591</v>
+        <v>5353.20888663328</v>
       </c>
       <c r="D22" t="n">
-        <v>4967.70716115027</v>
+        <v>4503.45074702017</v>
       </c>
       <c r="E22" t="n">
-        <v>14778.1045466559</v>
+        <v>10285.6268702469</v>
       </c>
       <c r="F22" t="n">
-        <v>18565.6053640096</v>
+        <v>12226.4264137523</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>11593.0903157666</v>
+        <v>9218.69301952264</v>
       </c>
       <c r="C23" t="n">
-        <v>7506.45252992452</v>
+        <v>6626.89699727131</v>
       </c>
       <c r="D23" t="n">
-        <v>5963.60492308777</v>
+        <v>5564.42738769277</v>
       </c>
       <c r="E23" t="n">
-        <v>17904.561779847</v>
+        <v>12824.1469609666</v>
       </c>
       <c r="F23" t="n">
-        <v>22536.6610972502</v>
+        <v>15272.784613231</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>11594.8762362505</v>
+        <v>9327.1330437639</v>
       </c>
       <c r="C24" t="n">
-        <v>7480.57332497015</v>
+        <v>6681.2033971763</v>
       </c>
       <c r="D24" t="n">
-        <v>5931.70597546162</v>
+        <v>5599.54474056338</v>
       </c>
       <c r="E24" t="n">
-        <v>17972.0389191564</v>
+        <v>13020.9193830021</v>
       </c>
       <c r="F24" t="n">
-        <v>22664.8379892943</v>
+        <v>15536.1578211659</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>12914.1240626378</v>
+        <v>10280.4655753838</v>
       </c>
       <c r="C25" t="n">
-        <v>8301.91535267251</v>
+        <v>7338.3927485033</v>
       </c>
       <c r="D25" t="n">
-        <v>6570.51850238058</v>
+        <v>6138.96573508238</v>
       </c>
       <c r="E25" t="n">
-        <v>20088.6895638502</v>
+        <v>14402.0599699038</v>
       </c>
       <c r="F25" t="n">
-        <v>25382.2586824427</v>
+        <v>17215.9248002764</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>13022.190623562</v>
+        <v>10211.3079204515</v>
       </c>
       <c r="C26" t="n">
-        <v>8341.67210639672</v>
+        <v>7263.8471318841</v>
       </c>
       <c r="D26" t="n">
-        <v>6589.56829752279</v>
+        <v>6065.48308418624</v>
       </c>
       <c r="E26" t="n">
-        <v>20328.9516146706</v>
+        <v>14354.763743387</v>
       </c>
       <c r="F26" t="n">
-        <v>25734.2273393138</v>
+        <v>17190.8499288584</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>13822.8708497714</v>
+        <v>11127.6756457404</v>
       </c>
       <c r="C27" t="n">
-        <v>8823.35968380308</v>
+        <v>7888.63723253274</v>
       </c>
       <c r="D27" t="n">
-        <v>6957.06618672007</v>
+        <v>6575.26246318128</v>
       </c>
       <c r="E27" t="n">
-        <v>21655.2158561786</v>
+        <v>15696.6484358221</v>
       </c>
       <c r="F27" t="n">
-        <v>27464.4158042057</v>
+        <v>18831.9730155522</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>14087.4458096827</v>
+        <v>11331.0315452978</v>
       </c>
       <c r="C28" t="n">
-        <v>8960.77181145708</v>
+        <v>8005.59818804091</v>
       </c>
       <c r="D28" t="n">
-        <v>7052.31281401589</v>
+        <v>6660.77921785959</v>
       </c>
       <c r="E28" t="n">
-        <v>22147.2138356435</v>
+        <v>16037.8116493946</v>
       </c>
       <c r="F28" t="n">
-        <v>28140.573833641</v>
+        <v>19275.8642316616</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>13078.7702956816</v>
+        <v>10515.5698593292</v>
       </c>
       <c r="C29" t="n">
-        <v>8290.25851296807</v>
+        <v>7404.54125054719</v>
       </c>
       <c r="D29" t="n">
-        <v>6512.59121762427</v>
+        <v>6149.74433598648</v>
       </c>
       <c r="E29" t="n">
-        <v>20633.1602542466</v>
+        <v>14933.7015926896</v>
       </c>
       <c r="F29" t="n">
-        <v>26265.15725174</v>
+        <v>17980.7815455624</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>13434.7391260096</v>
+        <v>10672.9049711426</v>
       </c>
       <c r="C30" t="n">
-        <v>8486.50350501189</v>
+        <v>7490.36157425697</v>
       </c>
       <c r="D30" t="n">
-        <v>6654.56451514666</v>
+        <v>6210.07209157275</v>
       </c>
       <c r="E30" t="n">
-        <v>21268.1483342746</v>
+        <v>15207.6637948337</v>
       </c>
       <c r="F30" t="n">
-        <v>27123.0694319832</v>
+        <v>18342.9272387387</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>13343.2855878769</v>
+        <v>10736.4422260603</v>
       </c>
       <c r="C31" t="n">
-        <v>8399.83882549169</v>
+        <v>7510.15218341058</v>
       </c>
       <c r="D31" t="n">
-        <v>6574.64497209665</v>
+        <v>6215.62279955706</v>
       </c>
       <c r="E31" t="n">
-        <v>21196.0341119072</v>
+        <v>15348.7158260463</v>
       </c>
       <c r="F31" t="n">
-        <v>27080.2866216008</v>
+        <v>18545.3968798983</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>13036.0540145851</v>
+        <v>10570.9124481945</v>
       </c>
       <c r="C32" t="n">
-        <v>8178.48728743886</v>
+        <v>7370.2475303024</v>
       </c>
       <c r="D32" t="n">
-        <v>6389.84262475928</v>
+        <v>6089.29406609753</v>
       </c>
       <c r="E32" t="n">
-        <v>20778.7452983128</v>
+        <v>15161.5247015737</v>
       </c>
       <c r="F32" t="n">
-        <v>26595.1314063206</v>
+        <v>18350.9268520195</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>11852.2549886435</v>
+        <v>9706.45799147729</v>
       </c>
       <c r="C33" t="n">
-        <v>7410.65089321023</v>
+        <v>6745.65811697159</v>
       </c>
       <c r="D33" t="n">
-        <v>5779.55749108933</v>
+        <v>5563.71508524833</v>
       </c>
       <c r="E33" t="n">
-        <v>18955.9527685392</v>
+        <v>13966.810221715</v>
       </c>
       <c r="F33" t="n">
-        <v>24305.6580944831</v>
+        <v>16933.8877524689</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>9609.38003931862</v>
+        <v>7420.34052809371</v>
       </c>
       <c r="C34" t="n">
-        <v>5988.09919430476</v>
+        <v>5140.36189977154</v>
       </c>
       <c r="D34" t="n">
-        <v>4661.79760759174</v>
+        <v>4232.4952350122</v>
       </c>
       <c r="E34" t="n">
-        <v>15420.6170846133</v>
+        <v>10711.5908619814</v>
       </c>
       <c r="F34" t="n">
-        <v>19807.8493561537</v>
+        <v>13009.2180842612</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>11599.7303192778</v>
+        <v>9218.71750318665</v>
       </c>
       <c r="C35" t="n">
-        <v>7204.25881254102</v>
+        <v>6365.88404104999</v>
       </c>
       <c r="D35" t="n">
-        <v>5598.67149299027</v>
+        <v>5232.75145960951</v>
       </c>
       <c r="E35" t="n">
-        <v>18676.9724660286</v>
+        <v>13350.0314890346</v>
       </c>
       <c r="F35" t="n">
-        <v>24033.1556599523</v>
+        <v>16240.9304281962</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>11601.1597312491</v>
+        <v>9327.15408115359</v>
       </c>
       <c r="C36" t="n">
-        <v>7181.24939186609</v>
+        <v>6420.4794815739</v>
       </c>
       <c r="D36" t="n">
-        <v>5570.98398999204</v>
+        <v>5268.82364528416</v>
       </c>
       <c r="E36" t="n">
-        <v>18741.4333865631</v>
+        <v>13549.7362001154</v>
       </c>
       <c r="F36" t="n">
-        <v>24158.5521250345</v>
+        <v>16511.4281878547</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>12920.7457174551</v>
+        <v>10280.4852675322</v>
       </c>
       <c r="C37" t="n">
-        <v>7971.73049336725</v>
+        <v>7054.61739691382</v>
       </c>
       <c r="D37" t="n">
-        <v>6173.41709579133</v>
+        <v>5779.6366859293</v>
       </c>
       <c r="E37" t="n">
-        <v>20942.2119869755</v>
+        <v>14981.4470990562</v>
       </c>
       <c r="F37" t="n">
-        <v>27042.6681535818</v>
+        <v>18286.3358164445</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
